--- a/qasp_YBE_600s.xlsx
+++ b/qasp_YBE_600s.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lutelillo/Desktop/solver_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5FD45C-AC4D-724E-9C40-2CF197283326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8539D49C-A9F6-0741-B7F3-C09379E8E57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="500" windowWidth="25080" windowHeight="16380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="347">
   <si>
     <t/>
   </si>
@@ -498,24 +498,6 @@
     <t>yale_problems/yale_1.sh</t>
   </si>
   <si>
-    <t>yale_problems/yale_10.sh</t>
-  </si>
-  <si>
-    <t>yale_problems/yale_11.sh</t>
-  </si>
-  <si>
-    <t>yale_problems/yale_13.sh</t>
-  </si>
-  <si>
-    <t>yale_problems/yale_14.sh</t>
-  </si>
-  <si>
-    <t>yale_problems/yale_15.sh</t>
-  </si>
-  <si>
-    <t>yale_problems/yale_16.sh</t>
-  </si>
-  <si>
     <t>yale_problems/yale_2.sh</t>
   </si>
   <si>
@@ -534,9 +516,6 @@
     <t>yale_problems/yale_8.sh</t>
   </si>
   <si>
-    <t>yale_problems/yale_9.sh</t>
-  </si>
-  <si>
     <t>SUM</t>
   </si>
   <si>
@@ -1087,6 +1066,18 @@
   </si>
   <si>
     <t>bomb_problems/btuc_bomb_0150.sh</t>
+  </si>
+  <si>
+    <t>Yale Problems - Average</t>
+  </si>
+  <si>
+    <t>Bomb Problems - Average</t>
+  </si>
+  <si>
+    <t>Eligible Problems - Average</t>
+  </si>
+  <si>
+    <t>Total Problems - Average</t>
   </si>
 </sst>
 </file>
@@ -1270,19 +1261,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F335"/>
+  <dimension ref="A1:F342"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B320" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B317" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A348" sqref="A348:F356"/>
+      <selection pane="bottomRight" activeCell="B339" sqref="B339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
     <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -4250,321 +4242,300 @@
         <v>152</v>
       </c>
       <c r="B148">
-        <v>2.2751999999999999</v>
+        <v>1.04958</v>
       </c>
       <c r="C148">
-        <v>2.2355200000000002</v>
+        <v>1.04386</v>
       </c>
       <c r="D148">
-        <f t="shared" ref="D148:D172" si="4">MIN($B148,$C148)</f>
-        <v>2.2355200000000002</v>
+        <f t="shared" ref="D148:D161" si="4">MIN($B148,$C148)</f>
+        <v>1.04386</v>
       </c>
       <c r="E148">
-        <f t="shared" ref="E148:E172" si="5">MEDIAN($B148,$C148)</f>
-        <v>2.25536</v>
+        <f t="shared" ref="E148:E161" si="5">MEDIAN($B148,$C148)</f>
+        <v>1.0467200000000001</v>
       </c>
       <c r="F148">
-        <f t="shared" ref="F148:F172" si="6">MAX($B148,$C148)</f>
-        <v>2.2751999999999999</v>
+        <f t="shared" ref="F148:F161" si="6">MAX($B148,$C148)</f>
+        <v>1.04958</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B149">
-        <v>10.0662</v>
+        <v>1.54884</v>
       </c>
       <c r="C149">
-        <v>10.1637</v>
+        <v>1.4603299999999999</v>
       </c>
       <c r="D149">
         <f t="shared" si="4"/>
-        <v>10.0662</v>
+        <v>1.4603299999999999</v>
       </c>
       <c r="E149">
         <f t="shared" si="5"/>
-        <v>10.11495</v>
+        <v>1.5045850000000001</v>
       </c>
       <c r="F149">
         <f t="shared" si="6"/>
-        <v>10.1637</v>
+        <v>1.54884</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B150">
-        <v>12.5467</v>
+        <v>1.7123299999999999</v>
       </c>
       <c r="C150">
-        <v>11.551</v>
+        <v>1.74692</v>
       </c>
       <c r="D150">
         <f t="shared" si="4"/>
-        <v>11.551</v>
+        <v>1.7123299999999999</v>
       </c>
       <c r="E150">
         <f t="shared" si="5"/>
-        <v>12.04885</v>
+        <v>1.729625</v>
       </c>
       <c r="F150">
         <f t="shared" si="6"/>
-        <v>12.5467</v>
+        <v>1.74692</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B151">
-        <v>9.33826</v>
+        <v>2.05776</v>
       </c>
       <c r="C151">
-        <v>8.7342899999999997</v>
+        <v>2.0327199999999999</v>
       </c>
       <c r="D151">
         <f t="shared" si="4"/>
-        <v>8.7342899999999997</v>
+        <v>2.0327199999999999</v>
       </c>
       <c r="E151">
         <f t="shared" si="5"/>
-        <v>9.0362749999999998</v>
+        <v>2.0452399999999997</v>
       </c>
       <c r="F151">
         <f t="shared" si="6"/>
-        <v>9.33826</v>
+        <v>2.05776</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B152">
-        <v>17.282299999999999</v>
+        <v>1.24814</v>
       </c>
       <c r="C152">
-        <v>17.421500000000002</v>
+        <v>1.2661899999999999</v>
       </c>
       <c r="D152">
         <f t="shared" si="4"/>
-        <v>17.282299999999999</v>
+        <v>1.24814</v>
       </c>
       <c r="E152">
         <f t="shared" si="5"/>
-        <v>17.351900000000001</v>
+        <v>1.2571650000000001</v>
       </c>
       <c r="F152">
         <f t="shared" si="6"/>
-        <v>17.421500000000002</v>
+        <v>1.2661899999999999</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B153">
-        <v>21.044699999999999</v>
+        <v>2.6886999999999999</v>
       </c>
       <c r="C153">
-        <v>21.182200000000002</v>
+        <v>2.7003599999999999</v>
       </c>
       <c r="D153">
         <f t="shared" si="4"/>
-        <v>21.044699999999999</v>
+        <v>2.6886999999999999</v>
       </c>
       <c r="E153">
         <f t="shared" si="5"/>
-        <v>21.11345</v>
+        <v>2.6945299999999999</v>
       </c>
       <c r="F153">
         <f t="shared" si="6"/>
-        <v>21.182200000000002</v>
+        <v>2.7003599999999999</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B154">
-        <v>25.0885</v>
+        <v>3.2015899999999999</v>
       </c>
       <c r="C154">
-        <v>24.6189</v>
+        <v>3.2007699999999999</v>
       </c>
       <c r="D154">
         <f t="shared" si="4"/>
-        <v>24.6189</v>
+        <v>3.2007699999999999</v>
       </c>
       <c r="E154">
         <f t="shared" si="5"/>
-        <v>24.8537</v>
+        <v>3.2011799999999999</v>
       </c>
       <c r="F154">
         <f t="shared" si="6"/>
-        <v>25.0885</v>
+        <v>3.2015899999999999</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B155">
-        <v>33.077599999999997</v>
+        <v>600</v>
       </c>
       <c r="C155">
-        <v>33.273200000000003</v>
+        <v>600</v>
       </c>
       <c r="D155">
-        <f t="shared" si="4"/>
-        <v>33.077599999999997</v>
+        <v>600</v>
       </c>
       <c r="E155">
-        <f t="shared" si="5"/>
-        <v>33.175399999999996</v>
+        <v>600</v>
       </c>
       <c r="F155">
-        <f t="shared" si="6"/>
-        <v>33.273200000000003</v>
+        <v>600</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B156">
-        <v>3.78546</v>
+        <v>600</v>
       </c>
       <c r="C156">
-        <v>3.6479699999999999</v>
+        <v>600</v>
       </c>
       <c r="D156">
-        <f t="shared" si="4"/>
-        <v>3.6479699999999999</v>
+        <v>600</v>
       </c>
       <c r="E156">
-        <f t="shared" si="5"/>
-        <v>3.7167149999999998</v>
+        <v>600</v>
       </c>
       <c r="F156">
-        <f t="shared" si="6"/>
-        <v>3.78546</v>
+        <v>600</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B157">
-        <v>4.4893000000000001</v>
+        <v>600</v>
       </c>
       <c r="C157">
-        <v>4.2504499999999998</v>
+        <v>600</v>
       </c>
       <c r="D157">
-        <f t="shared" si="4"/>
-        <v>4.2504499999999998</v>
+        <v>600</v>
       </c>
       <c r="E157">
-        <f t="shared" si="5"/>
-        <v>4.3698750000000004</v>
+        <v>600</v>
       </c>
       <c r="F157">
-        <f t="shared" si="6"/>
-        <v>4.4893000000000001</v>
+        <v>600</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B158">
-        <v>5.0864000000000003</v>
+        <v>600</v>
       </c>
       <c r="C158">
-        <v>5.0021100000000001</v>
+        <v>600</v>
       </c>
       <c r="D158">
-        <f t="shared" si="4"/>
-        <v>5.0021100000000001</v>
+        <v>600</v>
       </c>
       <c r="E158">
-        <f t="shared" si="5"/>
-        <v>5.0442549999999997</v>
+        <v>600</v>
       </c>
       <c r="F158">
-        <f t="shared" si="6"/>
-        <v>5.0864000000000003</v>
+        <v>600</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B159">
-        <v>2.9635199999999999</v>
+        <v>600</v>
       </c>
       <c r="C159">
-        <v>2.8222200000000002</v>
+        <v>600</v>
       </c>
       <c r="D159">
-        <f t="shared" si="4"/>
-        <v>2.8222200000000002</v>
+        <v>600</v>
       </c>
       <c r="E159">
-        <f t="shared" si="5"/>
-        <v>2.8928700000000003</v>
+        <v>600</v>
       </c>
       <c r="F159">
-        <f t="shared" si="6"/>
-        <v>2.9635199999999999</v>
+        <v>600</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B160">
-        <v>7.1980399999999998</v>
+        <v>600</v>
       </c>
       <c r="C160">
-        <v>6.7409800000000004</v>
+        <v>600</v>
       </c>
       <c r="D160">
-        <f t="shared" si="4"/>
-        <v>6.7409800000000004</v>
+        <v>600</v>
       </c>
       <c r="E160">
-        <f t="shared" si="5"/>
-        <v>6.9695099999999996</v>
+        <v>600</v>
       </c>
       <c r="F160">
-        <f t="shared" si="6"/>
-        <v>7.1980399999999998</v>
+        <v>600</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B161">
-        <v>7.6774100000000001</v>
+        <v>600</v>
       </c>
       <c r="C161">
-        <v>7.6829000000000001</v>
+        <v>600</v>
       </c>
       <c r="D161">
-        <f t="shared" si="4"/>
-        <v>7.6774100000000001</v>
+        <v>600</v>
       </c>
       <c r="E161">
-        <f t="shared" si="5"/>
-        <v>7.6801550000000001</v>
+        <v>600</v>
       </c>
       <c r="F161">
-        <f t="shared" si="6"/>
-        <v>7.6829000000000001</v>
+        <v>600</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
@@ -6832,19 +6803,22 @@
         <v>289</v>
       </c>
       <c r="B275">
-        <v>600</v>
+        <v>2.6547100000000001</v>
       </c>
       <c r="C275">
-        <v>600</v>
+        <v>2.61077</v>
       </c>
       <c r="D275">
-        <v>600</v>
+        <f t="shared" ref="D275:D276" si="7">MIN($B275,$C275)</f>
+        <v>2.61077</v>
       </c>
       <c r="E275">
-        <v>600</v>
+        <f t="shared" ref="E275:E276" si="8">MEDIAN($B275,$C275)</f>
+        <v>2.6327400000000001</v>
       </c>
       <c r="F275">
-        <v>600</v>
+        <f t="shared" ref="F275:F276" si="9">MAX($B275,$C275)</f>
+        <v>2.6547100000000001</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.15">
@@ -6852,19 +6826,22 @@
         <v>290</v>
       </c>
       <c r="B276">
-        <v>600</v>
+        <v>3.7414399999999999</v>
       </c>
       <c r="C276">
-        <v>600</v>
+        <v>3.9220100000000002</v>
       </c>
       <c r="D276">
-        <v>600</v>
+        <f t="shared" si="7"/>
+        <v>3.7414399999999999</v>
       </c>
       <c r="E276">
-        <v>600</v>
+        <f t="shared" si="8"/>
+        <v>3.831725</v>
       </c>
       <c r="F276">
-        <v>600</v>
+        <f t="shared" si="9"/>
+        <v>3.9220100000000002</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.15">
@@ -6972,22 +6949,19 @@
         <v>296</v>
       </c>
       <c r="B282">
-        <v>2.6547100000000001</v>
+        <v>600</v>
       </c>
       <c r="C282">
-        <v>2.61077</v>
+        <v>600</v>
       </c>
       <c r="D282">
-        <f t="shared" ref="D282:D283" si="7">MIN($B282,$C282)</f>
-        <v>2.61077</v>
+        <v>600</v>
       </c>
       <c r="E282">
-        <f t="shared" ref="E282:E283" si="8">MEDIAN($B282,$C282)</f>
-        <v>2.6327400000000001</v>
+        <v>600</v>
       </c>
       <c r="F282">
-        <f t="shared" ref="F282:F283" si="9">MAX($B282,$C282)</f>
-        <v>2.6547100000000001</v>
+        <v>600</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.15">
@@ -6995,22 +6969,19 @@
         <v>297</v>
       </c>
       <c r="B283">
-        <v>3.7414399999999999</v>
+        <v>600</v>
       </c>
       <c r="C283">
-        <v>3.9220100000000002</v>
+        <v>600</v>
       </c>
       <c r="D283">
-        <f t="shared" si="7"/>
-        <v>3.7414399999999999</v>
+        <v>600</v>
       </c>
       <c r="E283">
-        <f t="shared" si="8"/>
-        <v>3.831725</v>
+        <v>600</v>
       </c>
       <c r="F283">
-        <f t="shared" si="9"/>
-        <v>3.9220100000000002</v>
+        <v>600</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.15">
@@ -7198,19 +7169,22 @@
         <v>307</v>
       </c>
       <c r="B293">
-        <v>600</v>
+        <v>2.24987</v>
       </c>
       <c r="C293">
-        <v>600</v>
+        <v>2.2360600000000002</v>
       </c>
       <c r="D293">
-        <v>600</v>
+        <f t="shared" ref="D293:D313" si="10">MIN($B293,$C293)</f>
+        <v>2.2360600000000002</v>
       </c>
       <c r="E293">
-        <v>600</v>
+        <f t="shared" ref="E293:E313" si="11">MEDIAN($B293,$C293)</f>
+        <v>2.2429649999999999</v>
       </c>
       <c r="F293">
-        <v>600</v>
+        <f t="shared" ref="F293:F313" si="12">MAX($B293,$C293)</f>
+        <v>2.24987</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.15">
@@ -7218,19 +7192,22 @@
         <v>308</v>
       </c>
       <c r="B294">
-        <v>600</v>
+        <v>2.4108900000000002</v>
       </c>
       <c r="C294">
-        <v>600</v>
+        <v>2.8849200000000002</v>
       </c>
       <c r="D294">
-        <v>600</v>
+        <f t="shared" si="10"/>
+        <v>2.4108900000000002</v>
       </c>
       <c r="E294">
-        <v>600</v>
+        <f t="shared" si="11"/>
+        <v>2.6479050000000002</v>
       </c>
       <c r="F294">
-        <v>600</v>
+        <f t="shared" si="12"/>
+        <v>2.8849200000000002</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.15">
@@ -7238,19 +7215,22 @@
         <v>309</v>
       </c>
       <c r="B295">
-        <v>600</v>
+        <v>5.3892100000000003</v>
       </c>
       <c r="C295">
-        <v>600</v>
+        <v>5.6536299999999997</v>
       </c>
       <c r="D295">
-        <v>600</v>
+        <f t="shared" si="10"/>
+        <v>5.3892100000000003</v>
       </c>
       <c r="E295">
-        <v>600</v>
+        <f t="shared" si="11"/>
+        <v>5.52142</v>
       </c>
       <c r="F295">
-        <v>600</v>
+        <f t="shared" si="12"/>
+        <v>5.6536299999999997</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.15">
@@ -7338,22 +7318,19 @@
         <v>314</v>
       </c>
       <c r="B300">
-        <v>2.24987</v>
+        <v>600</v>
       </c>
       <c r="C300">
-        <v>2.2360600000000002</v>
+        <v>600</v>
       </c>
       <c r="D300">
-        <f t="shared" ref="D300:D320" si="10">MIN($B300,$C300)</f>
-        <v>2.2360600000000002</v>
+        <v>600</v>
       </c>
       <c r="E300">
-        <f t="shared" ref="E300:E320" si="11">MEDIAN($B300,$C300)</f>
-        <v>2.2429649999999999</v>
+        <v>600</v>
       </c>
       <c r="F300">
-        <f t="shared" ref="F300:F320" si="12">MAX($B300,$C300)</f>
-        <v>2.24987</v>
+        <v>600</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.15">
@@ -7361,22 +7338,19 @@
         <v>315</v>
       </c>
       <c r="B301">
-        <v>2.4108900000000002</v>
+        <v>600</v>
       </c>
       <c r="C301">
-        <v>2.8849200000000002</v>
+        <v>600</v>
       </c>
       <c r="D301">
-        <f t="shared" si="10"/>
-        <v>2.4108900000000002</v>
+        <v>600</v>
       </c>
       <c r="E301">
-        <f t="shared" si="11"/>
-        <v>2.6479050000000002</v>
+        <v>600</v>
       </c>
       <c r="F301">
-        <f t="shared" si="12"/>
-        <v>2.8849200000000002</v>
+        <v>600</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.15">
@@ -7384,22 +7358,19 @@
         <v>316</v>
       </c>
       <c r="B302">
-        <v>5.3892100000000003</v>
+        <v>600</v>
       </c>
       <c r="C302">
-        <v>5.6536299999999997</v>
+        <v>600</v>
       </c>
       <c r="D302">
-        <f t="shared" si="10"/>
-        <v>5.3892100000000003</v>
+        <v>600</v>
       </c>
       <c r="E302">
-        <f t="shared" si="11"/>
-        <v>5.52142</v>
+        <v>600</v>
       </c>
       <c r="F302">
-        <f t="shared" si="12"/>
-        <v>5.6536299999999997</v>
+        <v>600</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.15">
@@ -7567,19 +7538,22 @@
         <v>325</v>
       </c>
       <c r="B311">
-        <v>600</v>
+        <v>2.8212700000000002</v>
       </c>
       <c r="C311">
-        <v>600</v>
+        <v>2.7087699999999999</v>
       </c>
       <c r="D311">
-        <v>600</v>
+        <f t="shared" si="10"/>
+        <v>2.7087699999999999</v>
       </c>
       <c r="E311">
-        <v>600</v>
+        <f t="shared" si="11"/>
+        <v>2.7650199999999998</v>
       </c>
       <c r="F311">
-        <v>600</v>
+        <f t="shared" si="12"/>
+        <v>2.8212700000000002</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.15">
@@ -7587,19 +7561,22 @@
         <v>326</v>
       </c>
       <c r="B312">
-        <v>600</v>
+        <v>3.9066800000000002</v>
       </c>
       <c r="C312">
-        <v>600</v>
+        <v>3.68797</v>
       </c>
       <c r="D312">
-        <v>600</v>
+        <f t="shared" si="10"/>
+        <v>3.68797</v>
       </c>
       <c r="E312">
-        <v>600</v>
+        <f t="shared" si="11"/>
+        <v>3.7973249999999998</v>
       </c>
       <c r="F312">
-        <v>600</v>
+        <f t="shared" si="12"/>
+        <v>3.9066800000000002</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.15">
@@ -7607,19 +7584,22 @@
         <v>327</v>
       </c>
       <c r="B313">
-        <v>600</v>
+        <v>19.930199999999999</v>
       </c>
       <c r="C313">
-        <v>600</v>
+        <v>19.700700000000001</v>
       </c>
       <c r="D313">
-        <v>600</v>
+        <f t="shared" si="10"/>
+        <v>19.700700000000001</v>
       </c>
       <c r="E313">
-        <v>600</v>
+        <f t="shared" si="11"/>
+        <v>19.815449999999998</v>
       </c>
       <c r="F313">
-        <v>600</v>
+        <f t="shared" si="12"/>
+        <v>19.930199999999999</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.15">
@@ -7707,22 +7687,19 @@
         <v>332</v>
       </c>
       <c r="B318">
-        <v>2.8212700000000002</v>
+        <v>600</v>
       </c>
       <c r="C318">
-        <v>2.7087699999999999</v>
+        <v>600</v>
       </c>
       <c r="D318">
-        <f t="shared" si="10"/>
-        <v>2.7087699999999999</v>
+        <v>600</v>
       </c>
       <c r="E318">
-        <f t="shared" si="11"/>
-        <v>2.7650199999999998</v>
+        <v>600</v>
       </c>
       <c r="F318">
-        <f t="shared" si="12"/>
-        <v>2.8212700000000002</v>
+        <v>600</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.15">
@@ -7730,22 +7707,19 @@
         <v>333</v>
       </c>
       <c r="B319">
-        <v>3.9066800000000002</v>
+        <v>600</v>
       </c>
       <c r="C319">
-        <v>3.68797</v>
+        <v>600</v>
       </c>
       <c r="D319">
-        <f t="shared" si="10"/>
-        <v>3.68797</v>
+        <v>600</v>
       </c>
       <c r="E319">
-        <f t="shared" si="11"/>
-        <v>3.7973249999999998</v>
+        <v>600</v>
       </c>
       <c r="F319">
-        <f t="shared" si="12"/>
-        <v>3.9066800000000002</v>
+        <v>600</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.15">
@@ -7753,22 +7727,19 @@
         <v>334</v>
       </c>
       <c r="B320">
-        <v>19.930199999999999</v>
+        <v>600</v>
       </c>
       <c r="C320">
-        <v>19.700700000000001</v>
+        <v>600</v>
       </c>
       <c r="D320">
-        <f t="shared" si="10"/>
-        <v>19.700700000000001</v>
+        <v>600</v>
       </c>
       <c r="E320">
-        <f t="shared" si="11"/>
-        <v>19.815449999999998</v>
+        <v>600</v>
       </c>
       <c r="F320">
-        <f t="shared" si="12"/>
-        <v>19.930199999999999</v>
+        <v>600</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.15">
@@ -7931,144 +7902,40 @@
         <v>600</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A329" t="s">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A339" t="s">
         <v>343</v>
       </c>
-      <c r="B329">
-        <v>600</v>
-      </c>
-      <c r="C329">
-        <v>600</v>
-      </c>
-      <c r="D329">
-        <v>600</v>
-      </c>
-      <c r="E329">
-        <v>600</v>
-      </c>
-      <c r="F329">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A330" t="s">
+      <c r="B339">
+        <f>AVERAGE(E148:E154)</f>
+        <v>1.925577857142857</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A340" t="s">
         <v>344</v>
       </c>
-      <c r="B330">
-        <v>600</v>
-      </c>
-      <c r="C330">
-        <v>600</v>
-      </c>
-      <c r="D330">
-        <v>600</v>
-      </c>
-      <c r="E330">
-        <v>600</v>
-      </c>
-      <c r="F330">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A331" t="s">
+      <c r="B340">
+        <f>AVERAGE(E155:E328)</f>
+        <v>572.66238247126444</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A341" t="s">
         <v>345</v>
       </c>
-      <c r="B331">
-        <v>600</v>
-      </c>
-      <c r="C331">
-        <v>600</v>
-      </c>
-      <c r="D331">
-        <v>600</v>
-      </c>
-      <c r="E331">
-        <v>600</v>
-      </c>
-      <c r="F331">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A332" t="s">
+      <c r="B341">
+        <f>AVERAGE(E3:E147)</f>
+        <v>577.30347873448272</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A342" t="s">
         <v>346</v>
       </c>
-      <c r="B332">
-        <v>600</v>
-      </c>
-      <c r="C332">
-        <v>600</v>
-      </c>
-      <c r="D332">
-        <v>600</v>
-      </c>
-      <c r="E332">
-        <v>600</v>
-      </c>
-      <c r="F332">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A333" t="s">
-        <v>347</v>
-      </c>
-      <c r="B333">
-        <v>600</v>
-      </c>
-      <c r="C333">
-        <v>600</v>
-      </c>
-      <c r="D333">
-        <v>600</v>
-      </c>
-      <c r="E333">
-        <v>600</v>
-      </c>
-      <c r="F333">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A334" t="s">
-        <v>348</v>
-      </c>
-      <c r="B334">
-        <v>600</v>
-      </c>
-      <c r="C334">
-        <v>600</v>
-      </c>
-      <c r="D334">
-        <v>600</v>
-      </c>
-      <c r="E334">
-        <v>600</v>
-      </c>
-      <c r="F334">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A335" t="s">
-        <v>349</v>
-      </c>
-      <c r="B335">
-        <v>600</v>
-      </c>
-      <c r="C335">
-        <v>600</v>
-      </c>
-      <c r="D335">
-        <v>600</v>
-      </c>
-      <c r="E335">
-        <v>600</v>
-      </c>
-      <c r="F335">
-        <v>600</v>
+      <c r="B342">
+        <f>AVERAGE(E3:E328)</f>
+        <v>562.47158899233136</v>
       </c>
     </row>
   </sheetData>
@@ -8138,7 +8005,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B3">
         <f>AVERAGE(Instances!B3:B147)</f>
@@ -8163,111 +8030,111 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B4">
         <f>AVERAGE(Instances!B148:B173)</f>
-        <v>283.15075346153844</v>
+        <v>438.98103615384611</v>
       </c>
       <c r="C4">
         <f>AVERAGE(Instances!C148:C173)</f>
-        <v>283.05103615384616</v>
+        <v>438.9788903846154</v>
       </c>
       <c r="D4">
         <f>MIN($B4,$C4)</f>
-        <v>283.05103615384616</v>
+        <v>438.9788903846154</v>
       </c>
       <c r="E4">
         <f>MEDIAN($B4,$C4)</f>
-        <v>283.10089480769227</v>
+        <v>438.97996326923078</v>
       </c>
       <c r="F4">
         <f>MAX($B4,$C4)</f>
-        <v>283.15075346153844</v>
+        <v>438.98103615384611</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B6">
         <f>SUM(B3:B4)</f>
-        <v>860.43614433740049</v>
+        <v>1016.2664270297082</v>
       </c>
       <c r="C6">
         <f>SUM(C3:C4)</f>
-        <v>860.37260274694972</v>
+        <v>1016.3004569777189</v>
       </c>
       <c r="D6">
         <f>SUM(D3:D4)</f>
-        <v>860.33642702970815</v>
+        <v>1016.2642812604774</v>
       </c>
       <c r="E6">
         <f>SUM(E3:E4)</f>
-        <v>860.40437354217499</v>
+        <v>1016.2834420037135</v>
       </c>
       <c r="F6">
         <f>SUM(F3:F4)</f>
-        <v>860.47232005464195</v>
+        <v>1016.3026027469496</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B7">
         <f>AVERAGE(B3:B4)</f>
-        <v>430.21807216870025</v>
+        <v>508.13321351485411</v>
       </c>
       <c r="C7">
         <f>AVERAGE(C3:C4)</f>
-        <v>430.18630137347486</v>
+        <v>508.15022848885945</v>
       </c>
       <c r="D7">
         <f>AVERAGE(D3:D4)</f>
-        <v>430.16821351485407</v>
+        <v>508.13214063023872</v>
       </c>
       <c r="E7">
         <f>AVERAGE(E3:E4)</f>
-        <v>430.2021867710875</v>
+        <v>508.14172100185675</v>
       </c>
       <c r="F7">
         <f>AVERAGE(F3:F4)</f>
-        <v>430.23616002732098</v>
+        <v>508.15130137347478</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B8">
         <f>STDEV(B3:B4)</f>
-        <v>207.98459669751446</v>
+        <v>97.795947091566717</v>
       </c>
       <c r="C8">
         <f>STDEV(C3:C4)</f>
-        <v>208.08068757696103</v>
+        <v>97.823044474516678</v>
       </c>
       <c r="D8">
         <f>STDEV(D3:D4)</f>
-        <v>208.05510748198549</v>
+        <v>97.797464379540884</v>
       </c>
       <c r="E8">
         <f>STDEV(E3:E4)</f>
-        <v>208.03264213723779</v>
+        <v>97.809495783041768</v>
       </c>
       <c r="F8">
         <f>STDEV(F3:F4)</f>
-        <v>208.01017679249031</v>
+        <v>97.821527186543065</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <f t="array" ref="B9">SUM((B3:B4-$D3:$D4)^2)^0.5</f>
-        <v>9.9717307692287704E-2</v>
+        <v>2.1457692307080833E-3</v>
       </c>
       <c r="C9">
         <f t="array" ref="C9">SUM((C3:C4-$D3:$D4)^2)^0.5</f>
@@ -8276,7 +8143,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B10">
         <f t="array" ref="B10">SUM(B3:B4=$D3:$D4)</f>
@@ -8289,7 +8156,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B11">
         <f t="array" ref="B11">SUM(B3:B4&lt;$E3:$E4)</f>
@@ -8302,7 +8169,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B12">
         <f t="array" ref="B12">SUM(B3:B4&gt;$E3:$E4)</f>
@@ -8315,7 +8182,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B13">
         <f t="array" ref="B13">SUM(B3:B4=$F3:$F4)</f>
